--- a/two_line_alerts_60minute.xlsx
+++ b/two_line_alerts_60minute.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1996"/>
+  <dimension ref="A1:M2047"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90279,6 +90279,2301 @@
         <v>2</v>
       </c>
     </row>
+    <row r="1997">
+      <c r="A1997" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B1997" s="2" t="n">
+        <v>44945.63541666666</v>
+      </c>
+      <c r="C1997" t="n">
+        <v>97</v>
+      </c>
+      <c r="D1997" s="2" t="n">
+        <v>44938.38541666666</v>
+      </c>
+      <c r="E1997" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1997" t="n">
+        <v>42342.75</v>
+      </c>
+      <c r="G1997" s="2" t="n">
+        <v>44944.46875</v>
+      </c>
+      <c r="H1997" t="n">
+        <v>86</v>
+      </c>
+      <c r="I1997" t="n">
+        <v>42555.25</v>
+      </c>
+      <c r="J1997" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1997" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1997" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1997" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B1998" s="2" t="n">
+        <v>44966.55208333334</v>
+      </c>
+      <c r="C1998" t="n">
+        <v>193</v>
+      </c>
+      <c r="D1998" s="2" t="n">
+        <v>44958.51041666666</v>
+      </c>
+      <c r="E1998" t="n">
+        <v>150</v>
+      </c>
+      <c r="F1998" t="n">
+        <v>42011.2</v>
+      </c>
+      <c r="G1998" s="2" t="n">
+        <v>44965.38541666666</v>
+      </c>
+      <c r="H1998" t="n">
+        <v>182</v>
+      </c>
+      <c r="I1998" t="n">
+        <v>41789.25</v>
+      </c>
+      <c r="J1998" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1998" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1998" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1998" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B1999" s="2" t="n">
+        <v>44970.63541666666</v>
+      </c>
+      <c r="C1999" t="n">
+        <v>209</v>
+      </c>
+      <c r="D1999" s="2" t="n">
+        <v>44963.38541666666</v>
+      </c>
+      <c r="E1999" t="n">
+        <v>168</v>
+      </c>
+      <c r="F1999" t="n">
+        <v>18507.9</v>
+      </c>
+      <c r="G1999" s="2" t="n">
+        <v>44967.46875</v>
+      </c>
+      <c r="H1999" t="n">
+        <v>198</v>
+      </c>
+      <c r="I1999" t="n">
+        <v>18565.1</v>
+      </c>
+      <c r="J1999" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K1999" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1999" t="n">
+        <v>1</v>
+      </c>
+      <c r="M1999" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2000" s="2" t="n">
+        <v>44991.51041666666</v>
+      </c>
+      <c r="C2000" t="n">
+        <v>311</v>
+      </c>
+      <c r="D2000" s="2" t="n">
+        <v>44984.38541666666</v>
+      </c>
+      <c r="E2000" t="n">
+        <v>273</v>
+      </c>
+      <c r="F2000" t="n">
+        <v>17788.05</v>
+      </c>
+      <c r="G2000" s="2" t="n">
+        <v>44987.63541666666</v>
+      </c>
+      <c r="H2000" t="n">
+        <v>300</v>
+      </c>
+      <c r="I2000" t="n">
+        <v>17923.9</v>
+      </c>
+      <c r="J2000" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2000" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2000" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2000" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2001" s="2" t="n">
+        <v>45041.38541666666</v>
+      </c>
+      <c r="C2001" t="n">
+        <v>525</v>
+      </c>
+      <c r="D2001" s="2" t="n">
+        <v>45035.55208333334</v>
+      </c>
+      <c r="E2001" t="n">
+        <v>501</v>
+      </c>
+      <c r="F2001" t="n">
+        <v>18704.8</v>
+      </c>
+      <c r="G2001" s="2" t="n">
+        <v>45037.51041666666</v>
+      </c>
+      <c r="H2001" t="n">
+        <v>514</v>
+      </c>
+      <c r="I2001" t="n">
+        <v>18671.6</v>
+      </c>
+      <c r="J2001" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2001" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2001" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2001" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2002" s="2" t="n">
+        <v>45071.46875</v>
+      </c>
+      <c r="C2002" t="n">
+        <v>674</v>
+      </c>
+      <c r="D2002" s="2" t="n">
+        <v>45055.46875</v>
+      </c>
+      <c r="E2002" t="n">
+        <v>590</v>
+      </c>
+      <c r="F2002" t="n">
+        <v>19424.35</v>
+      </c>
+      <c r="G2002" s="2" t="n">
+        <v>45069.59375</v>
+      </c>
+      <c r="H2002" t="n">
+        <v>663</v>
+      </c>
+      <c r="I2002" t="n">
+        <v>19464.95</v>
+      </c>
+      <c r="J2002" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2002" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2002" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2002" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2003" s="2" t="n">
+        <v>45071.46875</v>
+      </c>
+      <c r="C2003" t="n">
+        <v>674</v>
+      </c>
+      <c r="D2003" s="2" t="n">
+        <v>45061.59375</v>
+      </c>
+      <c r="E2003" t="n">
+        <v>621</v>
+      </c>
+      <c r="F2003" t="n">
+        <v>44151.7</v>
+      </c>
+      <c r="G2003" s="2" t="n">
+        <v>45069.59375</v>
+      </c>
+      <c r="H2003" t="n">
+        <v>663</v>
+      </c>
+      <c r="I2003" t="n">
+        <v>44093.8</v>
+      </c>
+      <c r="J2003" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2003" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2003" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2003" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2004" s="2" t="n">
+        <v>45071.46875</v>
+      </c>
+      <c r="C2004" t="n">
+        <v>674</v>
+      </c>
+      <c r="D2004" s="2" t="n">
+        <v>45064.46875</v>
+      </c>
+      <c r="E2004" t="n">
+        <v>639</v>
+      </c>
+      <c r="F2004" t="n">
+        <v>44079.2</v>
+      </c>
+      <c r="G2004" s="2" t="n">
+        <v>45069.59375</v>
+      </c>
+      <c r="H2004" t="n">
+        <v>663</v>
+      </c>
+      <c r="I2004" t="n">
+        <v>44093.8</v>
+      </c>
+      <c r="J2004" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2004" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2004" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2004" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2005" s="2" t="n">
+        <v>45075.42708333334</v>
+      </c>
+      <c r="C2005" t="n">
+        <v>687</v>
+      </c>
+      <c r="D2005" s="2" t="n">
+        <v>45056.38541666666</v>
+      </c>
+      <c r="E2005" t="n">
+        <v>595</v>
+      </c>
+      <c r="F2005" t="n">
+        <v>19138.95</v>
+      </c>
+      <c r="G2005" s="2" t="n">
+        <v>45071.55208333334</v>
+      </c>
+      <c r="H2005" t="n">
+        <v>676</v>
+      </c>
+      <c r="I2005" t="n">
+        <v>19119.45</v>
+      </c>
+      <c r="J2005" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2005" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2005" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2005" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2006" s="2" t="n">
+        <v>45082.51041666666</v>
+      </c>
+      <c r="C2006" t="n">
+        <v>724</v>
+      </c>
+      <c r="D2006" s="2" t="n">
+        <v>45063.55208333334</v>
+      </c>
+      <c r="E2006" t="n">
+        <v>634</v>
+      </c>
+      <c r="F2006" t="n">
+        <v>19206.8</v>
+      </c>
+      <c r="G2006" s="2" t="n">
+        <v>45078.63541666666</v>
+      </c>
+      <c r="H2006" t="n">
+        <v>713</v>
+      </c>
+      <c r="I2006" t="n">
+        <v>19286.3</v>
+      </c>
+      <c r="J2006" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2006" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2006" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2006" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2007" s="2" t="n">
+        <v>45086.59375</v>
+      </c>
+      <c r="C2007" t="n">
+        <v>754</v>
+      </c>
+      <c r="D2007" s="2" t="n">
+        <v>45075.38541666666</v>
+      </c>
+      <c r="E2007" t="n">
+        <v>686</v>
+      </c>
+      <c r="F2007" t="n">
+        <v>19613.6</v>
+      </c>
+      <c r="G2007" s="2" t="n">
+        <v>45085.42708333334</v>
+      </c>
+      <c r="H2007" t="n">
+        <v>743</v>
+      </c>
+      <c r="I2007" t="n">
+        <v>19623.05</v>
+      </c>
+      <c r="J2007" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2007" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2007" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2007" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2008" s="2" t="n">
+        <v>45092.55208333334</v>
+      </c>
+      <c r="C2008" t="n">
+        <v>781</v>
+      </c>
+      <c r="D2008" s="2" t="n">
+        <v>45076.63541666666</v>
+      </c>
+      <c r="E2008" t="n">
+        <v>699</v>
+      </c>
+      <c r="F2008" t="n">
+        <v>44494.75</v>
+      </c>
+      <c r="G2008" s="2" t="n">
+        <v>45091.38541666666</v>
+      </c>
+      <c r="H2008" t="n">
+        <v>770</v>
+      </c>
+      <c r="I2008" t="n">
+        <v>44197.75</v>
+      </c>
+      <c r="J2008" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2008" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2008" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2008" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2009" s="2" t="n">
+        <v>45103.55208333334</v>
+      </c>
+      <c r="C2009" t="n">
+        <v>830</v>
+      </c>
+      <c r="D2009" s="2" t="n">
+        <v>45092.63541666666</v>
+      </c>
+      <c r="E2009" t="n">
+        <v>783</v>
+      </c>
+      <c r="F2009" t="n">
+        <v>43397.5</v>
+      </c>
+      <c r="G2009" s="2" t="n">
+        <v>45100.38541666666</v>
+      </c>
+      <c r="H2009" t="n">
+        <v>819</v>
+      </c>
+      <c r="I2009" t="n">
+        <v>43521.35</v>
+      </c>
+      <c r="J2009" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2009" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2009" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2009" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2010" s="2" t="n">
+        <v>45103.55208333334</v>
+      </c>
+      <c r="C2010" t="n">
+        <v>830</v>
+      </c>
+      <c r="D2010" s="2" t="n">
+        <v>45097.42708333334</v>
+      </c>
+      <c r="E2010" t="n">
+        <v>799</v>
+      </c>
+      <c r="F2010" t="n">
+        <v>43347.4</v>
+      </c>
+      <c r="G2010" s="2" t="n">
+        <v>45100.38541666666</v>
+      </c>
+      <c r="H2010" t="n">
+        <v>819</v>
+      </c>
+      <c r="I2010" t="n">
+        <v>43521.35</v>
+      </c>
+      <c r="J2010" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2010" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2010" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2010" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2011" s="2" t="n">
+        <v>45105.46875</v>
+      </c>
+      <c r="C2011" t="n">
+        <v>842</v>
+      </c>
+      <c r="D2011" s="2" t="n">
+        <v>45097.42708333334</v>
+      </c>
+      <c r="E2011" t="n">
+        <v>799</v>
+      </c>
+      <c r="F2011" t="n">
+        <v>43347.4</v>
+      </c>
+      <c r="G2011" s="2" t="n">
+        <v>45103.59375</v>
+      </c>
+      <c r="H2011" t="n">
+        <v>831</v>
+      </c>
+      <c r="I2011" t="n">
+        <v>43541.75</v>
+      </c>
+      <c r="J2011" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2011" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2011" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2011" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2012" s="2" t="n">
+        <v>45105.46875</v>
+      </c>
+      <c r="C2012" t="n">
+        <v>842</v>
+      </c>
+      <c r="D2012" s="2" t="n">
+        <v>45100.38541666666</v>
+      </c>
+      <c r="E2012" t="n">
+        <v>819</v>
+      </c>
+      <c r="F2012" t="n">
+        <v>43521.35</v>
+      </c>
+      <c r="G2012" s="2" t="n">
+        <v>45103.59375</v>
+      </c>
+      <c r="H2012" t="n">
+        <v>831</v>
+      </c>
+      <c r="I2012" t="n">
+        <v>43541.75</v>
+      </c>
+      <c r="J2012" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2012" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2012" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2012" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2013" s="2" t="n">
+        <v>45117.51041666666</v>
+      </c>
+      <c r="C2013" t="n">
+        <v>892</v>
+      </c>
+      <c r="D2013" s="2" t="n">
+        <v>45111.55208333334</v>
+      </c>
+      <c r="E2013" t="n">
+        <v>865</v>
+      </c>
+      <c r="F2013" t="n">
+        <v>45655.5</v>
+      </c>
+      <c r="G2013" s="2" t="n">
+        <v>45113.63541666666</v>
+      </c>
+      <c r="H2013" t="n">
+        <v>881</v>
+      </c>
+      <c r="I2013" t="n">
+        <v>45417.5</v>
+      </c>
+      <c r="J2013" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2013" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2013" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2013" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2014" s="2" t="n">
+        <v>45125.46875</v>
+      </c>
+      <c r="C2014" t="n">
+        <v>933</v>
+      </c>
+      <c r="D2014" s="2" t="n">
+        <v>45119.59375</v>
+      </c>
+      <c r="E2014" t="n">
+        <v>908</v>
+      </c>
+      <c r="F2014" t="n">
+        <v>19893.05</v>
+      </c>
+      <c r="G2014" s="2" t="n">
+        <v>45121.59375</v>
+      </c>
+      <c r="H2014" t="n">
+        <v>922</v>
+      </c>
+      <c r="I2014" t="n">
+        <v>19937.4</v>
+      </c>
+      <c r="J2014" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2014" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2014" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2014" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2015" s="2" t="n">
+        <v>45131.55208333334</v>
+      </c>
+      <c r="C2015" t="n">
+        <v>963</v>
+      </c>
+      <c r="D2015" s="2" t="n">
+        <v>45125.38541666666</v>
+      </c>
+      <c r="E2015" t="n">
+        <v>931</v>
+      </c>
+      <c r="F2015" t="n">
+        <v>45905.85</v>
+      </c>
+      <c r="G2015" s="2" t="n">
+        <v>45128.38541666666</v>
+      </c>
+      <c r="H2015" t="n">
+        <v>952</v>
+      </c>
+      <c r="I2015" t="n">
+        <v>46369.5</v>
+      </c>
+      <c r="J2015" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2015" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2015" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2015" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2016" s="2" t="n">
+        <v>45162.59375</v>
+      </c>
+      <c r="C2016" t="n">
+        <v>1118</v>
+      </c>
+      <c r="D2016" s="2" t="n">
+        <v>45156.38541666666</v>
+      </c>
+      <c r="E2016" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F2016" t="n">
+        <v>19440.1</v>
+      </c>
+      <c r="G2016" s="2" t="n">
+        <v>45161.42708333334</v>
+      </c>
+      <c r="H2016" t="n">
+        <v>1107</v>
+      </c>
+      <c r="I2016" t="n">
+        <v>19512.15</v>
+      </c>
+      <c r="J2016" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2016" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2016" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2016" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2017" s="2" t="n">
+        <v>45173.55208333334</v>
+      </c>
+      <c r="C2017" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D2017" s="2" t="n">
+        <v>45156.38541666666</v>
+      </c>
+      <c r="E2017" t="n">
+        <v>1085</v>
+      </c>
+      <c r="F2017" t="n">
+        <v>43684.4</v>
+      </c>
+      <c r="G2017" s="2" t="n">
+        <v>45170.38541666666</v>
+      </c>
+      <c r="H2017" t="n">
+        <v>1155</v>
+      </c>
+      <c r="I2017" t="n">
+        <v>43832.8</v>
+      </c>
+      <c r="J2017" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2017" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2017" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2017" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2018" s="2" t="n">
+        <v>45174.55208333334</v>
+      </c>
+      <c r="C2018" t="n">
+        <v>1173</v>
+      </c>
+      <c r="D2018" s="2" t="n">
+        <v>45168.38541666666</v>
+      </c>
+      <c r="E2018" t="n">
+        <v>1141</v>
+      </c>
+      <c r="F2018" t="n">
+        <v>19914.4</v>
+      </c>
+      <c r="G2018" s="2" t="n">
+        <v>45173.38541666666</v>
+      </c>
+      <c r="H2018" t="n">
+        <v>1162</v>
+      </c>
+      <c r="I2018" t="n">
+        <v>19871</v>
+      </c>
+      <c r="J2018" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2018" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2018" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2018" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2019" s="2" t="n">
+        <v>45177.42708333334</v>
+      </c>
+      <c r="C2019" t="n">
+        <v>1191</v>
+      </c>
+      <c r="D2019" s="2" t="n">
+        <v>45163.42708333334</v>
+      </c>
+      <c r="E2019" t="n">
+        <v>1121</v>
+      </c>
+      <c r="F2019" t="n">
+        <v>43986.55</v>
+      </c>
+      <c r="G2019" s="2" t="n">
+        <v>45175.55208333334</v>
+      </c>
+      <c r="H2019" t="n">
+        <v>1180</v>
+      </c>
+      <c r="I2019" t="n">
+        <v>44207.25</v>
+      </c>
+      <c r="J2019" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2019" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2019" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2019" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2020">
+      <c r="A2020" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2020" s="2" t="n">
+        <v>45195.46875</v>
+      </c>
+      <c r="C2020" t="n">
+        <v>1269</v>
+      </c>
+      <c r="D2020" s="2" t="n">
+        <v>45175.55208333334</v>
+      </c>
+      <c r="E2020" t="n">
+        <v>1180</v>
+      </c>
+      <c r="F2020" t="n">
+        <v>19654</v>
+      </c>
+      <c r="G2020" s="2" t="n">
+        <v>45191.59375</v>
+      </c>
+      <c r="H2020" t="n">
+        <v>1258</v>
+      </c>
+      <c r="I2020" t="n">
+        <v>19708.1</v>
+      </c>
+      <c r="J2020" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2020" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2020" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2020" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2021" s="2" t="n">
+        <v>45203.46875</v>
+      </c>
+      <c r="C2021" t="n">
+        <v>1304</v>
+      </c>
+      <c r="D2021" s="2" t="n">
+        <v>45197.42708333334</v>
+      </c>
+      <c r="E2021" t="n">
+        <v>1282</v>
+      </c>
+      <c r="F2021" t="n">
+        <v>44756.8</v>
+      </c>
+      <c r="G2021" s="2" t="n">
+        <v>45198.59375</v>
+      </c>
+      <c r="H2021" t="n">
+        <v>1293</v>
+      </c>
+      <c r="I2021" t="n">
+        <v>44755.05</v>
+      </c>
+      <c r="J2021" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2021" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2021" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2021" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2022" s="2" t="n">
+        <v>45209.55208333334</v>
+      </c>
+      <c r="C2022" t="n">
+        <v>1334</v>
+      </c>
+      <c r="D2022" s="2" t="n">
+        <v>45196.42708333334</v>
+      </c>
+      <c r="E2022" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F2022" t="n">
+        <v>44182.5</v>
+      </c>
+      <c r="G2022" s="2" t="n">
+        <v>45208.38541666666</v>
+      </c>
+      <c r="H2022" t="n">
+        <v>1323</v>
+      </c>
+      <c r="I2022" t="n">
+        <v>43796.75</v>
+      </c>
+      <c r="J2022" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2022" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2022" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2022" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2023">
+      <c r="A2023" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2023" s="2" t="n">
+        <v>45211.55208333334</v>
+      </c>
+      <c r="C2023" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D2023" s="2" t="n">
+        <v>45198.59375</v>
+      </c>
+      <c r="E2023" t="n">
+        <v>1293</v>
+      </c>
+      <c r="F2023" t="n">
+        <v>44755.05</v>
+      </c>
+      <c r="G2023" s="2" t="n">
+        <v>45210.38541666666</v>
+      </c>
+      <c r="H2023" t="n">
+        <v>1337</v>
+      </c>
+      <c r="I2023" t="n">
+        <v>44710.55</v>
+      </c>
+      <c r="J2023" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2023" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2023" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2023" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2024" s="2" t="n">
+        <v>45216.55208333334</v>
+      </c>
+      <c r="C2024" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D2024" s="2" t="n">
+        <v>45203.46875</v>
+      </c>
+      <c r="E2024" t="n">
+        <v>1304</v>
+      </c>
+      <c r="F2024" t="n">
+        <v>43857.5</v>
+      </c>
+      <c r="G2024" s="2" t="n">
+        <v>45215.38541666666</v>
+      </c>
+      <c r="H2024" t="n">
+        <v>1358</v>
+      </c>
+      <c r="I2024" t="n">
+        <v>44044.4</v>
+      </c>
+      <c r="J2024" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2024" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2024" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2024" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2025" s="2" t="n">
+        <v>45216.55208333334</v>
+      </c>
+      <c r="C2025" t="n">
+        <v>1369</v>
+      </c>
+      <c r="D2025" s="2" t="n">
+        <v>45208.38541666666</v>
+      </c>
+      <c r="E2025" t="n">
+        <v>1323</v>
+      </c>
+      <c r="F2025" t="n">
+        <v>43796.75</v>
+      </c>
+      <c r="G2025" s="2" t="n">
+        <v>45215.38541666666</v>
+      </c>
+      <c r="H2025" t="n">
+        <v>1358</v>
+      </c>
+      <c r="I2025" t="n">
+        <v>44044.4</v>
+      </c>
+      <c r="J2025" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2025" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2025" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2025" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2026" s="2" t="n">
+        <v>45251.55208333334</v>
+      </c>
+      <c r="C2026" t="n">
+        <v>1531</v>
+      </c>
+      <c r="D2026" s="2" t="n">
+        <v>45237.46875</v>
+      </c>
+      <c r="E2026" t="n">
+        <v>1465</v>
+      </c>
+      <c r="F2026" t="n">
+        <v>43283.85</v>
+      </c>
+      <c r="G2026" s="2" t="n">
+        <v>45250.38541666666</v>
+      </c>
+      <c r="H2026" t="n">
+        <v>1520</v>
+      </c>
+      <c r="I2026" t="n">
+        <v>43450.05</v>
+      </c>
+      <c r="J2026" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2026" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2026" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2026" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2027" s="2" t="n">
+        <v>45252.55208333334</v>
+      </c>
+      <c r="C2027" t="n">
+        <v>1538</v>
+      </c>
+      <c r="D2027" s="2" t="n">
+        <v>45239.46875</v>
+      </c>
+      <c r="E2027" t="n">
+        <v>1479</v>
+      </c>
+      <c r="F2027" t="n">
+        <v>43876.75</v>
+      </c>
+      <c r="G2027" s="2" t="n">
+        <v>45251.38541666666</v>
+      </c>
+      <c r="H2027" t="n">
+        <v>1527</v>
+      </c>
+      <c r="I2027" t="n">
+        <v>43790.95</v>
+      </c>
+      <c r="J2027" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2027" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2027" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2027" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2028" s="2" t="n">
+        <v>45250.55208333334</v>
+      </c>
+      <c r="C2028" t="n">
+        <v>1524</v>
+      </c>
+      <c r="D2028" s="2" t="n">
+        <v>45237.51041666666</v>
+      </c>
+      <c r="E2028" t="n">
+        <v>1466</v>
+      </c>
+      <c r="F2028" t="n">
+        <v>19356.35</v>
+      </c>
+      <c r="G2028" s="2" t="n">
+        <v>45247.38541666666</v>
+      </c>
+      <c r="H2028" t="n">
+        <v>1513</v>
+      </c>
+      <c r="I2028" t="n">
+        <v>19469.85</v>
+      </c>
+      <c r="J2028" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2028" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2028" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2028" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2029" s="2" t="n">
+        <v>45253.38541666666</v>
+      </c>
+      <c r="C2029" t="n">
+        <v>1541</v>
+      </c>
+      <c r="D2029" s="2" t="n">
+        <v>45237.63541666666</v>
+      </c>
+      <c r="E2029" t="n">
+        <v>1469</v>
+      </c>
+      <c r="F2029" t="n">
+        <v>19586.7</v>
+      </c>
+      <c r="G2029" s="2" t="n">
+        <v>45251.51041666666</v>
+      </c>
+      <c r="H2029" t="n">
+        <v>1530</v>
+      </c>
+      <c r="I2029" t="n">
+        <v>19635.4</v>
+      </c>
+      <c r="J2029" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2029" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2029" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2029" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2030" s="2" t="n">
+        <v>45274.55208333334</v>
+      </c>
+      <c r="C2030" t="n">
+        <v>1643</v>
+      </c>
+      <c r="D2030" s="2" t="n">
+        <v>45267.38541666666</v>
+      </c>
+      <c r="E2030" t="n">
+        <v>1604</v>
+      </c>
+      <c r="F2030" t="n">
+        <v>20911.05</v>
+      </c>
+      <c r="G2030" s="2" t="n">
+        <v>45273.38541666666</v>
+      </c>
+      <c r="H2030" t="n">
+        <v>1632</v>
+      </c>
+      <c r="I2030" t="n">
+        <v>21055.45</v>
+      </c>
+      <c r="J2030" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2030" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2030" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2030" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2031" s="2" t="n">
+        <v>45282.55208333334</v>
+      </c>
+      <c r="C2031" t="n">
+        <v>1685</v>
+      </c>
+      <c r="D2031" s="2" t="n">
+        <v>45273.38541666666</v>
+      </c>
+      <c r="E2031" t="n">
+        <v>1632</v>
+      </c>
+      <c r="F2031" t="n">
+        <v>21055.45</v>
+      </c>
+      <c r="G2031" s="2" t="n">
+        <v>45281.38541666666</v>
+      </c>
+      <c r="H2031" t="n">
+        <v>1674</v>
+      </c>
+      <c r="I2031" t="n">
+        <v>20996.45</v>
+      </c>
+      <c r="J2031" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2031" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2031" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2031" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2032" s="2" t="n">
+        <v>45289.55208333334</v>
+      </c>
+      <c r="C2032" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D2032" s="2" t="n">
+        <v>45280.38541666666</v>
+      </c>
+      <c r="E2032" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F2032" t="n">
+        <v>21552.35</v>
+      </c>
+      <c r="G2032" s="2" t="n">
+        <v>45282.42708333334</v>
+      </c>
+      <c r="H2032" t="n">
+        <v>1682</v>
+      </c>
+      <c r="I2032" t="n">
+        <v>21413.5</v>
+      </c>
+      <c r="J2032" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2032" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2032" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2032" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2033" s="2" t="n">
+        <v>45294.46875</v>
+      </c>
+      <c r="C2033" t="n">
+        <v>1732</v>
+      </c>
+      <c r="D2033" s="2" t="n">
+        <v>45282.42708333334</v>
+      </c>
+      <c r="E2033" t="n">
+        <v>1682</v>
+      </c>
+      <c r="F2033" t="n">
+        <v>48071.4</v>
+      </c>
+      <c r="G2033" s="2" t="n">
+        <v>45292.59375</v>
+      </c>
+      <c r="H2033" t="n">
+        <v>1721</v>
+      </c>
+      <c r="I2033" t="n">
+        <v>48450</v>
+      </c>
+      <c r="J2033" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2033" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2033" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2033" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2034" s="2" t="n">
+        <v>45289.55208333334</v>
+      </c>
+      <c r="C2034" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D2034" s="2" t="n">
+        <v>45282.42708333334</v>
+      </c>
+      <c r="E2034" t="n">
+        <v>1682</v>
+      </c>
+      <c r="F2034" t="n">
+        <v>21413.5</v>
+      </c>
+      <c r="G2034" s="2" t="n">
+        <v>45288.38541666666</v>
+      </c>
+      <c r="H2034" t="n">
+        <v>1702</v>
+      </c>
+      <c r="I2034" t="n">
+        <v>21627.35</v>
+      </c>
+      <c r="J2034" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2034" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2034" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2034" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2035" s="2" t="n">
+        <v>45295.55208333334</v>
+      </c>
+      <c r="C2035" t="n">
+        <v>1741</v>
+      </c>
+      <c r="D2035" s="2" t="n">
+        <v>45279.38541666666</v>
+      </c>
+      <c r="E2035" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F2035" t="n">
+        <v>47646.05</v>
+      </c>
+      <c r="G2035" s="2" t="n">
+        <v>45294.38541666666</v>
+      </c>
+      <c r="H2035" t="n">
+        <v>1730</v>
+      </c>
+      <c r="I2035" t="n">
+        <v>47481.35</v>
+      </c>
+      <c r="J2035" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2035" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2035" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2035" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2036" s="2" t="n">
+        <v>45296.38541666666</v>
+      </c>
+      <c r="C2036" t="n">
+        <v>1744</v>
+      </c>
+      <c r="D2036" s="2" t="n">
+        <v>45279.38541666666</v>
+      </c>
+      <c r="E2036" t="n">
+        <v>1660</v>
+      </c>
+      <c r="F2036" t="n">
+        <v>21337.15</v>
+      </c>
+      <c r="G2036" s="2" t="n">
+        <v>45294.51041666666</v>
+      </c>
+      <c r="H2036" t="n">
+        <v>1733</v>
+      </c>
+      <c r="I2036" t="n">
+        <v>21216.55</v>
+      </c>
+      <c r="J2036" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2036" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2036" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2036" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2037" s="2" t="n">
+        <v>45308.63541666666</v>
+      </c>
+      <c r="C2037" t="n">
+        <v>1806</v>
+      </c>
+      <c r="D2037" s="2" t="n">
+        <v>45292.59375</v>
+      </c>
+      <c r="E2037" t="n">
+        <v>1721</v>
+      </c>
+      <c r="F2037" t="n">
+        <v>48450</v>
+      </c>
+      <c r="G2037" s="2" t="n">
+        <v>45307.46875</v>
+      </c>
+      <c r="H2037" t="n">
+        <v>1795</v>
+      </c>
+      <c r="I2037" t="n">
+        <v>48305.4</v>
+      </c>
+      <c r="J2037" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2037" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2037" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2037" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2038" s="2" t="n">
+        <v>45308.59375</v>
+      </c>
+      <c r="C2038" t="n">
+        <v>1805</v>
+      </c>
+      <c r="D2038" s="2" t="n">
+        <v>45296.38541666666</v>
+      </c>
+      <c r="E2038" t="n">
+        <v>1744</v>
+      </c>
+      <c r="F2038" t="n">
+        <v>21602.1</v>
+      </c>
+      <c r="G2038" s="2" t="n">
+        <v>45307.42708333334</v>
+      </c>
+      <c r="H2038" t="n">
+        <v>1794</v>
+      </c>
+      <c r="I2038" t="n">
+        <v>21513.5</v>
+      </c>
+      <c r="J2038" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2038" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2038" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2038" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2039" s="2" t="n">
+        <v>45323.55208333334</v>
+      </c>
+      <c r="C2039" t="n">
+        <v>1874</v>
+      </c>
+      <c r="D2039" s="2" t="n">
+        <v>45309.38541666666</v>
+      </c>
+      <c r="E2039" t="n">
+        <v>1807</v>
+      </c>
+      <c r="F2039" t="n">
+        <v>20194.75</v>
+      </c>
+      <c r="G2039" s="2" t="n">
+        <v>45322.38541666666</v>
+      </c>
+      <c r="H2039" t="n">
+        <v>1863</v>
+      </c>
+      <c r="I2039" t="n">
+        <v>20160.55</v>
+      </c>
+      <c r="J2039" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2039" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2039" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2039" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2040" s="2" t="n">
+        <v>45327.63541666666</v>
+      </c>
+      <c r="C2040" t="n">
+        <v>1890</v>
+      </c>
+      <c r="D2040" s="2" t="n">
+        <v>45314.38541666666</v>
+      </c>
+      <c r="E2040" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F2040" t="n">
+        <v>46580.3</v>
+      </c>
+      <c r="G2040" s="2" t="n">
+        <v>45324.46875</v>
+      </c>
+      <c r="H2040" t="n">
+        <v>1879</v>
+      </c>
+      <c r="I2040" t="n">
+        <v>46892.35</v>
+      </c>
+      <c r="J2040" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2040" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2040" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2040" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2041" s="2" t="n">
+        <v>45331.55208333334</v>
+      </c>
+      <c r="C2041" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D2041" s="2" t="n">
+        <v>45314.38541666666</v>
+      </c>
+      <c r="E2041" t="n">
+        <v>1828</v>
+      </c>
+      <c r="F2041" t="n">
+        <v>46580.3</v>
+      </c>
+      <c r="G2041" s="2" t="n">
+        <v>45330.38541666666</v>
+      </c>
+      <c r="H2041" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I2041" t="n">
+        <v>46181.2</v>
+      </c>
+      <c r="J2041" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2041" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2041" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2041" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2042" s="2" t="n">
+        <v>45331.55208333334</v>
+      </c>
+      <c r="C2042" t="n">
+        <v>1916</v>
+      </c>
+      <c r="D2042" s="2" t="n">
+        <v>45322.46875</v>
+      </c>
+      <c r="E2042" t="n">
+        <v>1865</v>
+      </c>
+      <c r="F2042" t="n">
+        <v>20587.45</v>
+      </c>
+      <c r="G2042" s="2" t="n">
+        <v>45330.38541666666</v>
+      </c>
+      <c r="H2042" t="n">
+        <v>1905</v>
+      </c>
+      <c r="I2042" t="n">
+        <v>20542.85</v>
+      </c>
+      <c r="J2042" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2042" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2042" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2042" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2043" s="2" t="n">
+        <v>45345.63541666666</v>
+      </c>
+      <c r="C2043" t="n">
+        <v>1988</v>
+      </c>
+      <c r="D2043" s="2" t="n">
+        <v>45328.38541666666</v>
+      </c>
+      <c r="E2043" t="n">
+        <v>1891</v>
+      </c>
+      <c r="F2043" t="n">
+        <v>20240.55</v>
+      </c>
+      <c r="G2043" s="2" t="n">
+        <v>45344.46875</v>
+      </c>
+      <c r="H2043" t="n">
+        <v>1977</v>
+      </c>
+      <c r="I2043" t="n">
+        <v>20440.9</v>
+      </c>
+      <c r="J2043" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2043" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2043" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2043" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2044" s="2" t="n">
+        <v>45372.59375</v>
+      </c>
+      <c r="C2044" t="n">
+        <v>2116</v>
+      </c>
+      <c r="D2044" s="2" t="n">
+        <v>45369.46875</v>
+      </c>
+      <c r="E2044" t="n">
+        <v>2092</v>
+      </c>
+      <c r="F2044" t="n">
+        <v>20413.15</v>
+      </c>
+      <c r="G2044" s="2" t="n">
+        <v>45371.42708333334</v>
+      </c>
+      <c r="H2044" t="n">
+        <v>2105</v>
+      </c>
+      <c r="I2044" t="n">
+        <v>20362.8</v>
+      </c>
+      <c r="J2044" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2044" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2044" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2044" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2045" s="2" t="n">
+        <v>45378.46875</v>
+      </c>
+      <c r="C2045" t="n">
+        <v>2134</v>
+      </c>
+      <c r="D2045" s="2" t="n">
+        <v>45372.38541666666</v>
+      </c>
+      <c r="E2045" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F2045" t="n">
+        <v>20822.75</v>
+      </c>
+      <c r="G2045" s="2" t="n">
+        <v>45373.59375</v>
+      </c>
+      <c r="H2045" t="n">
+        <v>2123</v>
+      </c>
+      <c r="I2045" t="n">
+        <v>20846.05</v>
+      </c>
+      <c r="J2045" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2045" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2045" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2045" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2046" s="2" t="n">
+        <v>45408.55208333334</v>
+      </c>
+      <c r="C2046" t="n">
+        <v>2269</v>
+      </c>
+      <c r="D2046" s="2" t="n">
+        <v>45398.38541666666</v>
+      </c>
+      <c r="E2046" t="n">
+        <v>2216</v>
+      </c>
+      <c r="F2046" t="n">
+        <v>47316.55</v>
+      </c>
+      <c r="G2046" s="2" t="n">
+        <v>45407.38541666666</v>
+      </c>
+      <c r="H2046" t="n">
+        <v>2258</v>
+      </c>
+      <c r="I2046" t="n">
+        <v>47737.2</v>
+      </c>
+      <c r="J2046" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2046" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2046" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2046" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2047" s="2" t="n">
+        <v>45412.46875</v>
+      </c>
+      <c r="C2047" t="n">
+        <v>2281</v>
+      </c>
+      <c r="D2047" s="2" t="n">
+        <v>45407.38541666666</v>
+      </c>
+      <c r="E2047" t="n">
+        <v>2258</v>
+      </c>
+      <c r="F2047" t="n">
+        <v>47737.2</v>
+      </c>
+      <c r="G2047" s="2" t="n">
+        <v>45408.59375</v>
+      </c>
+      <c r="H2047" t="n">
+        <v>2270</v>
+      </c>
+      <c r="I2047" t="n">
+        <v>48088.25</v>
+      </c>
+      <c r="J2047" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2047" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2047" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2047" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/two_line_alerts_60minute.xlsx
+++ b/two_line_alerts_60minute.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2047"/>
+  <dimension ref="A1:M2050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92574,6 +92574,141 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2048">
+      <c r="A2048" t="inlineStr">
+        <is>
+          <t>NIFTY BANK</t>
+        </is>
+      </c>
+      <c r="B2048" s="2" t="n">
+        <v>44942.42708333334</v>
+      </c>
+      <c r="C2048" t="n">
+        <v>71</v>
+      </c>
+      <c r="D2048" s="2" t="n">
+        <v>44932.59375</v>
+      </c>
+      <c r="E2048" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2048" t="n">
+        <v>41881.45</v>
+      </c>
+      <c r="G2048" s="2" t="n">
+        <v>44938.55208333334</v>
+      </c>
+      <c r="H2048" t="n">
+        <v>60</v>
+      </c>
+      <c r="I2048" t="n">
+        <v>41746.3</v>
+      </c>
+      <c r="J2048" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2048" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2048" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2048" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2049" s="2" t="n">
+        <v>45202.51041666666</v>
+      </c>
+      <c r="C2049" t="n">
+        <v>1298</v>
+      </c>
+      <c r="D2049" s="2" t="n">
+        <v>45191.59375</v>
+      </c>
+      <c r="E2049" t="n">
+        <v>1258</v>
+      </c>
+      <c r="F2049" t="n">
+        <v>19708.1</v>
+      </c>
+      <c r="G2049" s="2" t="n">
+        <v>45197.63541666666</v>
+      </c>
+      <c r="H2049" t="n">
+        <v>1287</v>
+      </c>
+      <c r="I2049" t="n">
+        <v>19649.35</v>
+      </c>
+      <c r="J2049" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="K2049" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2049" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2049" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050" t="inlineStr">
+        <is>
+          <t>NIFTY FIN SERVICE</t>
+        </is>
+      </c>
+      <c r="B2050" s="2" t="n">
+        <v>45289.55208333334</v>
+      </c>
+      <c r="C2050" t="n">
+        <v>1713</v>
+      </c>
+      <c r="D2050" s="2" t="n">
+        <v>45280.38541666666</v>
+      </c>
+      <c r="E2050" t="n">
+        <v>1667</v>
+      </c>
+      <c r="F2050" t="n">
+        <v>21552.35</v>
+      </c>
+      <c r="G2050" s="2" t="n">
+        <v>45288.38541666666</v>
+      </c>
+      <c r="H2050" t="n">
+        <v>1702</v>
+      </c>
+      <c r="I2050" t="n">
+        <v>21627.35</v>
+      </c>
+      <c r="J2050" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="K2050" t="n">
+        <v>10</v>
+      </c>
+      <c r="L2050" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2050" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
